--- a/merged_kallisto_best.xlsx
+++ b/merged_kallisto_best.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="6620" windowWidth="25200" windowHeight="15400" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="24340" windowHeight="15300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="top 20 for adult and larva, 25 " sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="84">
   <si>
     <t>target_id</t>
   </si>
@@ -268,13 +269,16 @@
   </si>
   <si>
     <t>Yellowfever mosquito</t>
+  </si>
+  <si>
+    <t>Rat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,8 +324,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +524,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -487,8 +551,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="245">
+  <cellStyleXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -734,8 +874,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -832,8 +1050,101 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="12" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="245">
+  <cellStyles count="323">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -956,6 +1267,45 @@
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1078,6 +1428,45 @@
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1409,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1437,10 +1826,10 @@
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
@@ -5366,9 +5755,2019 @@
     <sortCondition descending="1" ref="N2"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="79"/>
+    <col min="2" max="3" width="11" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="79" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="12" style="79" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="79"/>
+    <col min="11" max="11" width="24.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="79" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="79" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="I1" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="71"/>
+    </row>
+    <row r="2" spans="2:14" ht="30">
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="24">
+      <c r="B3" s="55">
+        <v>22472</v>
+      </c>
+      <c r="C3" s="55">
+        <v>46185.4</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="74">
+        <v>9060</v>
+      </c>
+      <c r="J3" s="75">
+        <v>16486.8</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="24">
+      <c r="B4" s="55">
+        <v>85733</v>
+      </c>
+      <c r="C4" s="55">
+        <v>44065.1</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="74">
+        <v>28820</v>
+      </c>
+      <c r="J4" s="75">
+        <v>9379.64</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="24">
+      <c r="B5" s="55">
+        <v>21732</v>
+      </c>
+      <c r="C5" s="55">
+        <v>22435.5</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="74">
+        <v>106883</v>
+      </c>
+      <c r="J5" s="75">
+        <v>6861.06</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="24">
+      <c r="B6" s="55">
+        <v>116963</v>
+      </c>
+      <c r="C6" s="55">
+        <v>18891</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="74">
+        <v>24983</v>
+      </c>
+      <c r="J6" s="75">
+        <v>6353.9</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="30">
+      <c r="B7" s="55">
+        <v>9060</v>
+      </c>
+      <c r="C7" s="55">
+        <v>16486.8</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="74">
+        <v>18760</v>
+      </c>
+      <c r="J7" s="75">
+        <v>5991.16</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="45">
+      <c r="B8" s="55">
+        <v>28820</v>
+      </c>
+      <c r="C8" s="55">
+        <v>9379.64</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="74">
+        <v>21118</v>
+      </c>
+      <c r="J8" s="75">
+        <v>5294.48</v>
+      </c>
+      <c r="K8" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="24">
+      <c r="B9" s="55">
+        <v>94021</v>
+      </c>
+      <c r="C9" s="55">
+        <v>8926.2000000000007</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="74">
+        <v>16335</v>
+      </c>
+      <c r="J9" s="75">
+        <v>5249.76</v>
+      </c>
+      <c r="K9" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="36">
+      <c r="B10" s="55">
+        <v>106883</v>
+      </c>
+      <c r="C10" s="55">
+        <v>6861.06</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="76">
+        <v>110916</v>
+      </c>
+      <c r="J10" s="77">
+        <v>4402.87</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30">
+      <c r="B11" s="55">
+        <v>24983</v>
+      </c>
+      <c r="C11" s="55">
+        <v>6353.9</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="55">
+        <v>40372</v>
+      </c>
+      <c r="C12" s="55">
+        <v>6265.06</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="2:14" ht="30">
+      <c r="B13" s="55">
+        <v>18760</v>
+      </c>
+      <c r="C13" s="55">
+        <v>5991.16</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="55">
+        <v>24350</v>
+      </c>
+      <c r="C14" s="55">
+        <v>5341.62</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="2:14" ht="30">
+      <c r="B15" s="55">
+        <v>21118</v>
+      </c>
+      <c r="C15" s="55">
+        <v>5294.48</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="2:14" ht="30">
+      <c r="B16" s="55">
+        <v>16335</v>
+      </c>
+      <c r="C16" s="55">
+        <v>5249.76</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="54"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="55">
+        <v>32570</v>
+      </c>
+      <c r="C17" s="55">
+        <v>5169.58</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="55">
+        <v>49115</v>
+      </c>
+      <c r="C18" s="55">
+        <v>5119.8100000000004</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="55">
+        <v>75300</v>
+      </c>
+      <c r="C19" s="55">
+        <v>4920.53</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="54"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="55">
+        <v>118981</v>
+      </c>
+      <c r="C20" s="55">
+        <v>4844.21</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="2:14" ht="45">
+      <c r="B21" s="63">
+        <v>110916</v>
+      </c>
+      <c r="C21" s="63">
+        <v>4402.87</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="64">
+        <v>11081</v>
+      </c>
+      <c r="C22" s="64">
+        <v>4367.08</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+    </row>
+    <row r="25" spans="2:14" ht="24">
+      <c r="B25" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="24">
+      <c r="B26" s="66">
+        <v>22472</v>
+      </c>
+      <c r="C26" s="66">
+        <v>86096.7</v>
+      </c>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="66">
+        <v>560</v>
+      </c>
+      <c r="J26" s="66">
+        <v>13987.8</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="24">
+      <c r="B27" s="66">
+        <v>21732</v>
+      </c>
+      <c r="C27" s="66">
+        <v>43491.7</v>
+      </c>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="66">
+        <v>28820</v>
+      </c>
+      <c r="J27" s="66">
+        <v>7514.34</v>
+      </c>
+      <c r="K27" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="24">
+      <c r="B28" s="66">
+        <v>8576</v>
+      </c>
+      <c r="C28" s="66">
+        <v>18914.599999999999</v>
+      </c>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="66">
+        <v>106883</v>
+      </c>
+      <c r="J28" s="66">
+        <v>7143.04</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="24">
+      <c r="B29" s="66">
+        <v>560</v>
+      </c>
+      <c r="C29" s="66">
+        <v>13987.8</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="I29" s="66">
+        <v>9060</v>
+      </c>
+      <c r="J29" s="66">
+        <v>6878.43</v>
+      </c>
+      <c r="K29" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="24">
+      <c r="B30" s="66">
+        <v>119632</v>
+      </c>
+      <c r="C30" s="66">
+        <v>10813.2</v>
+      </c>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="66">
+        <v>35148</v>
+      </c>
+      <c r="J30" s="66">
+        <v>5186.9399999999996</v>
+      </c>
+      <c r="K30" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="24">
+      <c r="B31" s="66">
+        <v>30464</v>
+      </c>
+      <c r="C31" s="66">
+        <v>9144.6299999999992</v>
+      </c>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="66">
+        <v>18760</v>
+      </c>
+      <c r="J31" s="66">
+        <v>4466.24</v>
+      </c>
+      <c r="K31" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="66">
+        <v>34178</v>
+      </c>
+      <c r="C32" s="66">
+        <v>8201.81</v>
+      </c>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="1:15" ht="24">
+      <c r="B33" s="66">
+        <v>28820</v>
+      </c>
+      <c r="C33" s="66">
+        <v>7514.34</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="54"/>
+    </row>
+    <row r="34" spans="1:15" ht="24">
+      <c r="B34" s="66">
+        <v>106883</v>
+      </c>
+      <c r="C34" s="66">
+        <v>7143.04</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="54"/>
+    </row>
+    <row r="35" spans="1:15" ht="24">
+      <c r="B35" s="66">
+        <v>9060</v>
+      </c>
+      <c r="C35" s="66">
+        <v>6878.43</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="54"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="B36" s="66">
+        <v>43997</v>
+      </c>
+      <c r="C36" s="66">
+        <v>6482.81</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="54"/>
+    </row>
+    <row r="37" spans="1:15" ht="24">
+      <c r="B37" s="66">
+        <v>35148</v>
+      </c>
+      <c r="C37" s="66">
+        <v>5186.9399999999996</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="54"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="B38" s="66">
+        <v>23172</v>
+      </c>
+      <c r="C38" s="66">
+        <v>5150.88</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="54"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="B39" s="66">
+        <v>20652</v>
+      </c>
+      <c r="C39" s="66">
+        <v>4607.1899999999996</v>
+      </c>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="54"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="B40" s="66">
+        <v>37233</v>
+      </c>
+      <c r="C40" s="66">
+        <v>4587.87</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="54"/>
+    </row>
+    <row r="41" spans="1:15" ht="24">
+      <c r="B41" s="66">
+        <v>18760</v>
+      </c>
+      <c r="C41" s="66">
+        <v>4466.24</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="54"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="B42" s="66">
+        <v>35585</v>
+      </c>
+      <c r="C42" s="66">
+        <v>4423.63</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="54"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="B43" s="66">
+        <v>84786</v>
+      </c>
+      <c r="C43" s="66">
+        <v>4346.8900000000003</v>
+      </c>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="54"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="B44" s="66">
+        <v>20722</v>
+      </c>
+      <c r="C44" s="66">
+        <v>4124.8599999999997</v>
+      </c>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="54"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" s="66">
+        <v>73340</v>
+      </c>
+      <c r="C45" s="66">
+        <v>3979.53</v>
+      </c>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="54"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="I46" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+    </row>
+    <row r="47" spans="1:15" ht="24">
+      <c r="A47" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="24">
+      <c r="A48" s="57">
+        <v>22472</v>
+      </c>
+      <c r="B48" s="58">
+        <v>46185.4</v>
+      </c>
+      <c r="C48" s="58">
+        <v>86096.7</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="I48" s="66">
+        <v>9060</v>
+      </c>
+      <c r="J48" s="67">
+        <v>16486.8</v>
+      </c>
+      <c r="K48" s="67">
+        <v>6878.43</v>
+      </c>
+      <c r="L48" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="N48" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="24">
+      <c r="A49" s="57">
+        <v>21732</v>
+      </c>
+      <c r="B49" s="58">
+        <v>22435.5</v>
+      </c>
+      <c r="C49" s="58">
+        <v>43491.7</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="I49" s="66">
+        <v>28820</v>
+      </c>
+      <c r="J49" s="67">
+        <v>9379.64</v>
+      </c>
+      <c r="K49" s="67">
+        <v>7514.34</v>
+      </c>
+      <c r="L49" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="28">
+      <c r="A50" s="57">
+        <v>9060</v>
+      </c>
+      <c r="B50" s="58">
+        <v>16486.8</v>
+      </c>
+      <c r="C50" s="58">
+        <v>6878.43</v>
+      </c>
+      <c r="D50" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="66">
+        <v>106883</v>
+      </c>
+      <c r="J50" s="67">
+        <v>6861.06</v>
+      </c>
+      <c r="K50" s="67">
+        <v>7143.04</v>
+      </c>
+      <c r="L50" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="28">
+      <c r="A51" s="57">
+        <v>28820</v>
+      </c>
+      <c r="B51" s="58">
+        <v>9379.64</v>
+      </c>
+      <c r="C51" s="58">
+        <v>7514.34</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="66">
+        <v>24983</v>
+      </c>
+      <c r="J51" s="67">
+        <v>6353.9</v>
+      </c>
+      <c r="K51" s="67">
+        <v>2766.22</v>
+      </c>
+      <c r="L51" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="O51" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="28">
+      <c r="A52" s="57">
+        <v>106883</v>
+      </c>
+      <c r="B52" s="58">
+        <v>6861.06</v>
+      </c>
+      <c r="C52" s="58">
+        <v>7143.04</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="66">
+        <v>18760</v>
+      </c>
+      <c r="J52" s="67">
+        <v>5991.16</v>
+      </c>
+      <c r="K52" s="67">
+        <v>4466.24</v>
+      </c>
+      <c r="L52" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="28">
+      <c r="A53" s="57">
+        <v>24983</v>
+      </c>
+      <c r="B53" s="58">
+        <v>6353.9</v>
+      </c>
+      <c r="C53" s="58">
+        <v>2766.22</v>
+      </c>
+      <c r="D53" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="66">
+        <v>16335</v>
+      </c>
+      <c r="J53" s="67">
+        <v>5249.76</v>
+      </c>
+      <c r="K53" s="67">
+        <v>3933.5</v>
+      </c>
+      <c r="L53" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="N53" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="24">
+      <c r="A54" s="57">
+        <v>40372</v>
+      </c>
+      <c r="B54" s="58">
+        <v>6265.06</v>
+      </c>
+      <c r="C54" s="58">
+        <v>3583.66</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="I54" s="66">
+        <v>28449</v>
+      </c>
+      <c r="J54" s="67">
+        <v>2030.17</v>
+      </c>
+      <c r="K54" s="67">
+        <v>1628.05</v>
+      </c>
+      <c r="L54" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="O54" s="68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="36">
+      <c r="A55" s="57">
+        <v>18760</v>
+      </c>
+      <c r="B55" s="58">
+        <v>5991.16</v>
+      </c>
+      <c r="C55" s="58">
+        <v>4466.24</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="66">
+        <v>50484</v>
+      </c>
+      <c r="J55" s="67">
+        <v>1905.84</v>
+      </c>
+      <c r="K55" s="67">
+        <v>3256.55</v>
+      </c>
+      <c r="L55" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="O55" s="68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="28">
+      <c r="A56" s="57">
+        <v>16335</v>
+      </c>
+      <c r="B56" s="58">
+        <v>5249.76</v>
+      </c>
+      <c r="C56" s="58">
+        <v>3933.5</v>
+      </c>
+      <c r="D56" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="66">
+        <v>560</v>
+      </c>
+      <c r="J56" s="67">
+        <v>1825.24</v>
+      </c>
+      <c r="K56" s="67">
+        <v>13987.8</v>
+      </c>
+      <c r="L56" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="N56" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="24">
+      <c r="A57" s="57">
+        <v>118981</v>
+      </c>
+      <c r="B57" s="58">
+        <v>4844.21</v>
+      </c>
+      <c r="C57" s="58">
+        <v>1770.22</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="I57" s="66">
+        <v>33917</v>
+      </c>
+      <c r="J57" s="67">
+        <v>1823.79</v>
+      </c>
+      <c r="K57" s="67">
+        <v>1604.17</v>
+      </c>
+      <c r="L57" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="N57" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="O57" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="36">
+      <c r="A58" s="57">
+        <v>8576</v>
+      </c>
+      <c r="B58" s="58">
+        <v>2444.67</v>
+      </c>
+      <c r="C58" s="58">
+        <v>18914.599999999999</v>
+      </c>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="I58" s="66">
+        <v>259</v>
+      </c>
+      <c r="J58" s="67">
+        <v>1371.14</v>
+      </c>
+      <c r="K58" s="67">
+        <v>2382.29</v>
+      </c>
+      <c r="L58" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="O58" s="68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="36">
+      <c r="A59" s="57">
+        <v>28449</v>
+      </c>
+      <c r="B59" s="58">
+        <v>2030.17</v>
+      </c>
+      <c r="C59" s="58">
+        <v>1628.05</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="66">
+        <v>562</v>
+      </c>
+      <c r="J59" s="67">
+        <v>1275.19</v>
+      </c>
+      <c r="K59" s="67">
+        <v>2576.27</v>
+      </c>
+      <c r="L59" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="N59" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="O59" s="68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="28">
+      <c r="A60" s="57">
+        <v>50484</v>
+      </c>
+      <c r="B60" s="58">
+        <v>1905.84</v>
+      </c>
+      <c r="C60" s="58">
+        <v>3256.55</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="66">
+        <v>735</v>
+      </c>
+      <c r="J60" s="67">
+        <v>1270.83</v>
+      </c>
+      <c r="K60" s="67">
+        <v>2358.1799999999998</v>
+      </c>
+      <c r="L60" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="N60" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="O60" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="24">
+      <c r="A61" s="57">
+        <v>119632</v>
+      </c>
+      <c r="B61" s="58">
+        <v>1847.77</v>
+      </c>
+      <c r="C61" s="58">
+        <v>10813.2</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="I61" s="66">
+        <v>29996</v>
+      </c>
+      <c r="J61" s="67">
+        <v>1226.9000000000001</v>
+      </c>
+      <c r="K61" s="67">
+        <v>1420.09</v>
+      </c>
+      <c r="L61" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="N61" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="O61" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="28">
+      <c r="A62" s="57">
+        <v>560</v>
+      </c>
+      <c r="B62" s="58">
+        <v>1825.24</v>
+      </c>
+      <c r="C62" s="58">
+        <v>13987.8</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="66">
+        <v>70596</v>
+      </c>
+      <c r="J62" s="67">
+        <v>1218.49</v>
+      </c>
+      <c r="K62" s="67">
+        <v>2813.1</v>
+      </c>
+      <c r="L62" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="N62" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="O62" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="28">
+      <c r="A63" s="57">
+        <v>33917</v>
+      </c>
+      <c r="B63" s="58">
+        <v>1823.79</v>
+      </c>
+      <c r="C63" s="58">
+        <v>1604.17</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="66">
+        <v>46963</v>
+      </c>
+      <c r="J63" s="67">
+        <v>1107.57</v>
+      </c>
+      <c r="K63" s="67">
+        <v>1710.64</v>
+      </c>
+      <c r="L63" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="N63" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="O63" s="68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="42">
+      <c r="A64" s="57">
+        <v>259</v>
+      </c>
+      <c r="B64" s="58">
+        <v>1371.14</v>
+      </c>
+      <c r="C64" s="58">
+        <v>2382.29</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" s="66">
+        <v>32856</v>
+      </c>
+      <c r="J64" s="67">
+        <v>1097.6099999999999</v>
+      </c>
+      <c r="K64" s="67">
+        <v>1580.08</v>
+      </c>
+      <c r="L64" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="N64" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="O64" s="68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="36">
+      <c r="A65" s="57">
+        <v>637</v>
+      </c>
+      <c r="B65" s="58">
+        <v>1281.98</v>
+      </c>
+      <c r="C65" s="58">
+        <v>3456.66</v>
+      </c>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="I65" s="66">
+        <v>110916</v>
+      </c>
+      <c r="J65" s="67">
+        <v>4402.87</v>
+      </c>
+      <c r="K65" s="67">
+        <v>3895.4</v>
+      </c>
+      <c r="L65" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="N65" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="O65" s="68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="28">
+      <c r="A66" s="57">
+        <v>562</v>
+      </c>
+      <c r="B66" s="58">
+        <v>1275.19</v>
+      </c>
+      <c r="C66" s="58">
+        <v>2576.27</v>
+      </c>
+      <c r="D66" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="28">
+      <c r="A67" s="57">
+        <v>735</v>
+      </c>
+      <c r="B67" s="58">
+        <v>1270.83</v>
+      </c>
+      <c r="C67" s="58">
+        <v>2358.1799999999998</v>
+      </c>
+      <c r="D67" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="28">
+      <c r="A68" s="57">
+        <v>29996</v>
+      </c>
+      <c r="B68" s="58">
+        <v>1226.9000000000001</v>
+      </c>
+      <c r="C68" s="58">
+        <v>1420.09</v>
+      </c>
+      <c r="D68" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="28">
+      <c r="A69" s="57">
+        <v>70596</v>
+      </c>
+      <c r="B69" s="58">
+        <v>1218.49</v>
+      </c>
+      <c r="C69" s="58">
+        <v>2813.1</v>
+      </c>
+      <c r="D69" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="28">
+      <c r="A70" s="57">
+        <v>46963</v>
+      </c>
+      <c r="B70" s="58">
+        <v>1107.57</v>
+      </c>
+      <c r="C70" s="58">
+        <v>1710.64</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="28">
+      <c r="A71" s="57">
+        <v>32856</v>
+      </c>
+      <c r="B71" s="58">
+        <v>1097.6099999999999</v>
+      </c>
+      <c r="C71" s="58">
+        <v>1580.08</v>
+      </c>
+      <c r="D71" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="42">
+      <c r="A72" s="57">
+        <v>110916</v>
+      </c>
+      <c r="B72" s="58">
+        <v>4402.87</v>
+      </c>
+      <c r="C72" s="58">
+        <v>3895.4</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/merged_kallisto_best.xlsx
+++ b/merged_kallisto_best.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="0" windowWidth="24340" windowHeight="15300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="24340" windowHeight="15300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="top 20 for adult and larva, 25 " sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="86">
   <si>
     <t>target_id</t>
   </si>
@@ -272,13 +273,19 @@
   </si>
   <si>
     <t>Rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actin                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,12 +369,22 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,12 +553,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -628,7 +639,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="323">
+  <cellStyleXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,8 +963,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -987,9 +1060,6 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,9 +1141,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,15 +1162,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,20 +1174,8 @@
     <xf numFmtId="0" fontId="12" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,14 +1183,90 @@
     <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="323">
+  <cellStyles count="385">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1306,6 +1428,37 @@
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1467,6 +1620,37 @@
     <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1819,90 +2003,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="T1" s="33" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="T1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="33" t="s">
         <v>35</v>
       </c>
       <c r="T2" t="s">
@@ -1928,46 +2112,46 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="35">
+      <c r="A3" s="34">
         <v>22472</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>1315</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>1141.9100000000001</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>2739750</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>46185.4</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34">
         <v>22472</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="34">
         <v>1315</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <v>1154.76</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>6101620</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="34">
         <v>86096.7</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
       <c r="T3" s="2">
         <v>22472</v>
       </c>
@@ -1979,44 +2163,44 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>85733</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>289</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>115.907</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>265326</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>44065.1</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="37">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="36">
         <v>21732</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="36">
         <v>1359</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="36">
         <v>1198.76</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="37">
         <v>3199670</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="36">
         <v>43491.7</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
       <c r="T4" s="3">
         <v>21732</v>
       </c>
@@ -2028,44 +2212,44 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>21732</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>1359</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>1185.9100000000001</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>1382170</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>22435.5</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="39">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="38">
         <v>8576</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="38">
         <v>2516</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="38">
         <v>2355.7600000000002</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="39">
         <v>2734610</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="38">
         <v>18914.599999999999</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
       <c r="T5" s="6">
         <v>9060</v>
       </c>
@@ -2089,50 +2273,50 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>116963</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>220</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>46.907200000000003</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>46033</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>18891</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="41">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="40">
         <v>560</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="40">
         <v>6415</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="40">
         <v>6254.76</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="41">
         <v>5369400</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="40">
         <v>13987.8</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="33" t="s">
         <v>57</v>
       </c>
       <c r="T6" s="4">
@@ -2158,52 +2342,52 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>9060</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <v>2441</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="42">
         <v>2267.91</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <v>1942380</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <v>16486.8</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="44">
         <v>119632</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="44">
         <v>215</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="44">
         <v>54.760100000000001</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="44">
         <v>36340.1</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="44">
         <v>10813.2</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
       <c r="T7" s="5">
         <v>106883</v>
       </c>
@@ -2227,52 +2411,52 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>28820</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>1017</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>843.90700000000004</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>411202</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>9379.64</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="33">
         <v>30464</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <v>955</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="33">
         <v>794.76</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <v>446035</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="33">
         <v>9144.6299999999992</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
       <c r="T8" s="9">
         <v>24983</v>
       </c>
@@ -2296,44 +2480,44 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>94021</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>266</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>92.907200000000003</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>43081.5</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <v>8926.2000000000007</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>34178</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <v>823</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="33">
         <v>662.76</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <v>333605</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="33">
         <v>8201.81</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
       <c r="T9" s="12">
         <v>40372</v>
       </c>
@@ -2345,58 +2529,58 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="47">
+      <c r="A10" s="46">
         <v>106883</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>237</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <v>63.907200000000003</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>22778</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <v>6861.06</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="45">
         <v>28820</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="45">
         <v>1017</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="45">
         <v>856.76</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="45">
         <v>395109</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="45">
         <v>7514.34</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="33" t="s">
         <v>42</v>
       </c>
       <c r="T10" s="7">
@@ -2422,52 +2606,52 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>24983</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="47">
         <v>1186</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <v>1012.91</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <v>334337</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <v>6353.9</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="47">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="46">
         <v>106883</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="46">
         <v>237</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="46">
         <v>76.760099999999994</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="46">
         <v>33650</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="46">
         <v>7143.04</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="33" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="10">
@@ -2493,50 +2677,50 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="49">
+      <c r="A12" s="48">
         <v>40372</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <v>663</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <v>489.90699999999998</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <v>159446</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="48">
         <v>6265.06</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="43">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="42">
         <v>9060</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="42">
         <v>2441</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="42">
         <v>2280.7600000000002</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>962799</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="42">
         <v>6878.43</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="T12" s="15">
@@ -2550,52 +2734,52 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="50">
+      <c r="A13" s="49">
         <v>18760</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="49">
         <v>1539</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>1365.91</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>425115</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <v>5991.16</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <v>43997</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <v>596</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="33">
         <v>435.76</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <v>173371</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="33">
         <v>6482.81</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
       <c r="T13" s="11">
         <v>8576</v>
       </c>
@@ -2607,50 +2791,50 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>24350</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>1216</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>1042.9100000000001</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>289396</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>5341.62</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33">
         <v>35148</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <v>793</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="33">
         <v>632.76</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <v>201427</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="33">
         <v>5186.9399999999996</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="34" t="s">
+      <c r="Q14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="R14" s="33" t="s">
         <v>82</v>
       </c>
       <c r="T14" s="32">
@@ -2676,52 +2860,52 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>21118</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>1395</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>1221.9100000000001</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>336075</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <v>5294.48</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="33">
         <v>23172</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <v>1278</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="33">
         <v>1117.76</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <v>353344</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="33">
         <v>5150.88</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
       <c r="T15" s="19">
         <v>50484</v>
       </c>
@@ -2745,52 +2929,52 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="51">
+      <c r="A16" s="50">
         <v>16335</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="50">
         <v>1712</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="50">
         <v>1538.91</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <v>419688</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <v>5249.76</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="33">
         <v>20652</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="33">
         <v>1421</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="33">
         <v>1260.76</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="33">
         <v>356480</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="33">
         <v>4607.1899999999996</v>
       </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
       <c r="T16" s="14">
         <v>119632</v>
       </c>
@@ -2802,44 +2986,44 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>32570</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>877</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>703.90700000000004</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>189036</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <v>5169.58</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33">
         <v>37233</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <v>735</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="33">
         <v>574.76</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>161832</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="33">
         <v>4587.87</v>
       </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
       <c r="T17" s="1">
         <v>560</v>
       </c>
@@ -2863,50 +3047,50 @@
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>49115</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>522</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>348.90699999999998</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>92798</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>5119.8100000000004</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="50">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="49">
         <v>18760</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="49">
         <v>1539</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="49">
         <v>1378.76</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="49">
         <v>377918</v>
       </c>
-      <c r="N18" s="50">
+      <c r="N18" s="49">
         <v>4466.24</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="R18" s="33" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="25">
@@ -2935,44 +3119,44 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>75300</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>327</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>153.90700000000001</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>39341</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <v>4920.53</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33">
         <v>35585</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <v>779</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="33">
         <v>618.76</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <v>167984</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="33">
         <v>4423.63</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
       <c r="T19" s="17">
         <v>259</v>
       </c>
@@ -2993,44 +3177,44 @@
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="52">
+      <c r="A20" s="51">
         <v>118981</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="51">
         <v>216</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="51">
         <v>42.907200000000003</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="51">
         <v>10797.6</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="51">
         <v>4844.21</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33">
         <v>84786</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <v>292</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="33">
         <v>131.76</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="33">
         <v>35150.300000000003</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="33">
         <v>4346.8900000000003</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
       <c r="T20" s="23">
         <v>637</v>
       </c>
@@ -3042,52 +3226,52 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="53">
+      <c r="A21" s="52">
         <v>110916</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <v>230</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="52">
         <v>56.907200000000003</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="52">
         <v>13016</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="52">
         <v>4402.87</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="33">
         <v>20722</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <v>1417</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="33">
         <v>1256.76</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="33">
         <v>318148</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="33">
         <v>4124.8599999999997</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
       <c r="T21" s="22">
         <v>562</v>
       </c>
@@ -3111,44 +3295,44 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>11081</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>2190</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <v>2016.91</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="33">
         <v>457564</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>4367.08</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33">
         <v>73340</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <v>336</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="33">
         <v>175.76</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="33">
         <v>42925.8</v>
       </c>
-      <c r="N22" s="34">
+      <c r="N22" s="33">
         <v>3979.53</v>
       </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
       <c r="T22" s="24">
         <v>735</v>
       </c>
@@ -5758,6 +5942,1947 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U72"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:O54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="71"/>
+    <col min="2" max="3" width="11" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="71" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="71" customWidth="1"/>
+    <col min="7" max="7" width="12" style="71" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="71"/>
+    <col min="11" max="11" width="23.83203125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="71" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="71" customWidth="1"/>
+    <col min="14" max="17" width="10.83203125" style="71"/>
+    <col min="18" max="18" width="23.83203125" style="71" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" style="71" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" style="71" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21">
+      <c r="B1" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81"/>
+      <c r="P1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+    </row>
+    <row r="2" spans="2:21" ht="30">
+      <c r="B2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="24">
+      <c r="B3" s="54">
+        <v>22472</v>
+      </c>
+      <c r="C3" s="54">
+        <v>46185.4</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="69">
+        <v>9060</v>
+      </c>
+      <c r="J3" s="70">
+        <v>16486.8</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="64">
+        <v>560</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>13987.8</v>
+      </c>
+      <c r="R3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="24">
+      <c r="B4" s="54">
+        <v>85733</v>
+      </c>
+      <c r="C4" s="54">
+        <v>44065.1</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="69">
+        <v>28820</v>
+      </c>
+      <c r="J4" s="70">
+        <v>9379.64</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="64">
+        <v>28820</v>
+      </c>
+      <c r="Q4" s="64">
+        <v>7514.34</v>
+      </c>
+      <c r="R4" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="24">
+      <c r="B5" s="54">
+        <v>21732</v>
+      </c>
+      <c r="C5" s="54">
+        <v>22435.5</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="69">
+        <v>106883</v>
+      </c>
+      <c r="J5" s="70">
+        <v>6861.06</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="64">
+        <v>106883</v>
+      </c>
+      <c r="Q5" s="64">
+        <v>7143.04</v>
+      </c>
+      <c r="R5" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="24">
+      <c r="B6" s="54">
+        <v>116963</v>
+      </c>
+      <c r="C6" s="54">
+        <v>18891</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="69">
+        <v>24983</v>
+      </c>
+      <c r="J6" s="70">
+        <v>6353.9</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="64">
+        <v>9060</v>
+      </c>
+      <c r="Q6" s="64">
+        <v>6878.43</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="30">
+      <c r="B7" s="54">
+        <v>9060</v>
+      </c>
+      <c r="C7" s="54">
+        <v>16486.8</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="69">
+        <v>18760</v>
+      </c>
+      <c r="J7" s="70">
+        <v>5991.16</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="64">
+        <v>35148</v>
+      </c>
+      <c r="Q7" s="64">
+        <v>5186.9399999999996</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" s="64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="45">
+      <c r="B8" s="54">
+        <v>28820</v>
+      </c>
+      <c r="C8" s="54">
+        <v>9379.64</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="54">
+        <v>94021</v>
+      </c>
+      <c r="C9" s="54">
+        <v>8926.2000000000007</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:21" ht="30">
+      <c r="B10" s="54">
+        <v>106883</v>
+      </c>
+      <c r="C10" s="54">
+        <v>6861.06</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="2:21" ht="30">
+      <c r="B11" s="54">
+        <v>24983</v>
+      </c>
+      <c r="C11" s="54">
+        <v>6353.9</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="54">
+        <v>40372</v>
+      </c>
+      <c r="C12" s="54">
+        <v>6265.06</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="2:21" ht="30">
+      <c r="B13" s="54">
+        <v>18760</v>
+      </c>
+      <c r="C13" s="54">
+        <v>5991.16</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="54">
+        <v>24350</v>
+      </c>
+      <c r="C14" s="54">
+        <v>5341.62</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="2:21" ht="30">
+      <c r="B15" s="54">
+        <v>21118</v>
+      </c>
+      <c r="C15" s="54">
+        <v>5294.48</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="2:21" ht="30">
+      <c r="B16" s="54">
+        <v>16335</v>
+      </c>
+      <c r="C16" s="54">
+        <v>5249.76</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="54">
+        <v>32570</v>
+      </c>
+      <c r="C17" s="54">
+        <v>5169.58</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="54">
+        <v>49115</v>
+      </c>
+      <c r="C18" s="54">
+        <v>5119.8100000000004</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="54">
+        <v>75300</v>
+      </c>
+      <c r="C19" s="54">
+        <v>4920.53</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="54">
+        <v>118981</v>
+      </c>
+      <c r="C20" s="54">
+        <v>4844.21</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="2:8" ht="45">
+      <c r="B21" s="61">
+        <v>110916</v>
+      </c>
+      <c r="C21" s="61">
+        <v>4402.87</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="62">
+        <v>11081</v>
+      </c>
+      <c r="C22" s="62">
+        <v>4367.08</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="2:8" ht="24">
+      <c r="B25" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="64">
+        <v>22472</v>
+      </c>
+      <c r="C26" s="64">
+        <v>86096.7</v>
+      </c>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="64">
+        <v>21732</v>
+      </c>
+      <c r="C27" s="64">
+        <v>43491.7</v>
+      </c>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="64">
+        <v>8576</v>
+      </c>
+      <c r="C28" s="64">
+        <v>18914.599999999999</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="2:8" ht="24">
+      <c r="B29" s="64">
+        <v>560</v>
+      </c>
+      <c r="C29" s="64">
+        <v>13987.8</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="64">
+        <v>119632</v>
+      </c>
+      <c r="C30" s="64">
+        <v>10813.2</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="64">
+        <v>30464</v>
+      </c>
+      <c r="C31" s="64">
+        <v>9144.6299999999992</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="64">
+        <v>34178</v>
+      </c>
+      <c r="C32" s="64">
+        <v>8201.81</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="1:15" ht="24">
+      <c r="B33" s="64">
+        <v>28820</v>
+      </c>
+      <c r="C33" s="64">
+        <v>7514.34</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="1:15" ht="24">
+      <c r="B34" s="64">
+        <v>106883</v>
+      </c>
+      <c r="C34" s="64">
+        <v>7143.04</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="1:15" ht="24">
+      <c r="B35" s="64">
+        <v>9060</v>
+      </c>
+      <c r="C35" s="64">
+        <v>6878.43</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="53"/>
+      <c r="I35" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+    </row>
+    <row r="36" spans="1:15" ht="24">
+      <c r="B36" s="64">
+        <v>43997</v>
+      </c>
+      <c r="C36" s="64">
+        <v>6482.81</v>
+      </c>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="24">
+      <c r="B37" s="64">
+        <v>35148</v>
+      </c>
+      <c r="C37" s="64">
+        <v>5186.9399999999996</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="53"/>
+      <c r="I37" s="64">
+        <v>9060</v>
+      </c>
+      <c r="J37" s="65">
+        <v>16486.8</v>
+      </c>
+      <c r="K37" s="65">
+        <v>6878.43</v>
+      </c>
+      <c r="L37" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="24">
+      <c r="B38" s="64">
+        <v>23172</v>
+      </c>
+      <c r="C38" s="64">
+        <v>5150.88</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="64">
+        <v>28820</v>
+      </c>
+      <c r="J38" s="65">
+        <v>9379.64</v>
+      </c>
+      <c r="K38" s="65">
+        <v>7514.34</v>
+      </c>
+      <c r="L38" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="24">
+      <c r="B39" s="64">
+        <v>20652</v>
+      </c>
+      <c r="C39" s="64">
+        <v>4607.1899999999996</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="64">
+        <v>106883</v>
+      </c>
+      <c r="J39" s="65">
+        <v>6861.06</v>
+      </c>
+      <c r="K39" s="65">
+        <v>7143.04</v>
+      </c>
+      <c r="L39" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="24">
+      <c r="B40" s="64">
+        <v>37233</v>
+      </c>
+      <c r="C40" s="64">
+        <v>4587.87</v>
+      </c>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="64">
+        <v>24983</v>
+      </c>
+      <c r="J40" s="65">
+        <v>6353.9</v>
+      </c>
+      <c r="K40" s="65">
+        <v>2766.22</v>
+      </c>
+      <c r="L40" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="24">
+      <c r="B41" s="64">
+        <v>18760</v>
+      </c>
+      <c r="C41" s="64">
+        <v>4466.24</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="64">
+        <v>18760</v>
+      </c>
+      <c r="J41" s="65">
+        <v>5991.16</v>
+      </c>
+      <c r="K41" s="65">
+        <v>4466.24</v>
+      </c>
+      <c r="L41" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="24">
+      <c r="B42" s="64">
+        <v>35585</v>
+      </c>
+      <c r="C42" s="64">
+        <v>4423.63</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="64">
+        <v>16335</v>
+      </c>
+      <c r="J42" s="65">
+        <v>5249.76</v>
+      </c>
+      <c r="K42" s="65">
+        <v>3933.5</v>
+      </c>
+      <c r="L42" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="24">
+      <c r="B43" s="64">
+        <v>84786</v>
+      </c>
+      <c r="C43" s="64">
+        <v>4346.8900000000003</v>
+      </c>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="64">
+        <v>28449</v>
+      </c>
+      <c r="J43" s="65">
+        <v>2030.17</v>
+      </c>
+      <c r="K43" s="65">
+        <v>1628.05</v>
+      </c>
+      <c r="L43" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="O43" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="36">
+      <c r="B44" s="64">
+        <v>20722</v>
+      </c>
+      <c r="C44" s="64">
+        <v>4124.8599999999997</v>
+      </c>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="64">
+        <v>50484</v>
+      </c>
+      <c r="J44" s="65">
+        <v>1905.84</v>
+      </c>
+      <c r="K44" s="65">
+        <v>3256.55</v>
+      </c>
+      <c r="L44" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="24">
+      <c r="B45" s="64">
+        <v>73340</v>
+      </c>
+      <c r="C45" s="64">
+        <v>3979.53</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="64">
+        <v>560</v>
+      </c>
+      <c r="J45" s="65">
+        <v>1825.24</v>
+      </c>
+      <c r="K45" s="65">
+        <v>13987.8</v>
+      </c>
+      <c r="L45" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="24">
+      <c r="A46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="I46" s="64">
+        <v>33917</v>
+      </c>
+      <c r="J46" s="65">
+        <v>1823.79</v>
+      </c>
+      <c r="K46" s="65">
+        <v>1604.17</v>
+      </c>
+      <c r="L46" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="N46" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="36">
+      <c r="A47" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="64">
+        <v>259</v>
+      </c>
+      <c r="J47" s="65">
+        <v>1371.14</v>
+      </c>
+      <c r="K47" s="65">
+        <v>2382.29</v>
+      </c>
+      <c r="L47" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O47" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="36">
+      <c r="A48" s="56">
+        <v>22472</v>
+      </c>
+      <c r="B48" s="57">
+        <v>46185.4</v>
+      </c>
+      <c r="C48" s="57">
+        <v>86096.7</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="I48" s="64">
+        <v>562</v>
+      </c>
+      <c r="J48" s="65">
+        <v>1275.19</v>
+      </c>
+      <c r="K48" s="65">
+        <v>2576.27</v>
+      </c>
+      <c r="L48" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="O48" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="24">
+      <c r="A49" s="56">
+        <v>21732</v>
+      </c>
+      <c r="B49" s="57">
+        <v>22435.5</v>
+      </c>
+      <c r="C49" s="57">
+        <v>43491.7</v>
+      </c>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="I49" s="64">
+        <v>735</v>
+      </c>
+      <c r="J49" s="65">
+        <v>1270.83</v>
+      </c>
+      <c r="K49" s="65">
+        <v>2358.1799999999998</v>
+      </c>
+      <c r="L49" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="28">
+      <c r="A50" s="56">
+        <v>9060</v>
+      </c>
+      <c r="B50" s="57">
+        <v>16486.8</v>
+      </c>
+      <c r="C50" s="57">
+        <v>6878.43</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="64">
+        <v>29996</v>
+      </c>
+      <c r="J50" s="65">
+        <v>1226.9000000000001</v>
+      </c>
+      <c r="K50" s="65">
+        <v>1420.09</v>
+      </c>
+      <c r="L50" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="O50" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="28">
+      <c r="A51" s="56">
+        <v>28820</v>
+      </c>
+      <c r="B51" s="57">
+        <v>9379.64</v>
+      </c>
+      <c r="C51" s="57">
+        <v>7514.34</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="64">
+        <v>70596</v>
+      </c>
+      <c r="J51" s="65">
+        <v>1218.49</v>
+      </c>
+      <c r="K51" s="65">
+        <v>2813.1</v>
+      </c>
+      <c r="L51" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="O51" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="28">
+      <c r="A52" s="56">
+        <v>106883</v>
+      </c>
+      <c r="B52" s="57">
+        <v>6861.06</v>
+      </c>
+      <c r="C52" s="57">
+        <v>7143.04</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="64">
+        <v>46963</v>
+      </c>
+      <c r="J52" s="65">
+        <v>1107.57</v>
+      </c>
+      <c r="K52" s="65">
+        <v>1710.64</v>
+      </c>
+      <c r="L52" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O52" s="66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="28">
+      <c r="A53" s="56">
+        <v>24983</v>
+      </c>
+      <c r="B53" s="57">
+        <v>6353.9</v>
+      </c>
+      <c r="C53" s="57">
+        <v>2766.22</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="64">
+        <v>32856</v>
+      </c>
+      <c r="J53" s="65">
+        <v>1097.6099999999999</v>
+      </c>
+      <c r="K53" s="65">
+        <v>1580.08</v>
+      </c>
+      <c r="L53" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="N53" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="O53" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="36">
+      <c r="A54" s="56">
+        <v>40372</v>
+      </c>
+      <c r="B54" s="57">
+        <v>6265.06</v>
+      </c>
+      <c r="C54" s="57">
+        <v>3583.66</v>
+      </c>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="I54" s="64">
+        <v>110916</v>
+      </c>
+      <c r="J54" s="65">
+        <v>4402.87</v>
+      </c>
+      <c r="K54" s="65">
+        <v>3895.4</v>
+      </c>
+      <c r="L54" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="N54" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O54" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="28">
+      <c r="A55" s="56">
+        <v>18760</v>
+      </c>
+      <c r="B55" s="57">
+        <v>5991.16</v>
+      </c>
+      <c r="C55" s="57">
+        <v>4466.24</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="28">
+      <c r="A56" s="56">
+        <v>16335</v>
+      </c>
+      <c r="B56" s="57">
+        <v>5249.76</v>
+      </c>
+      <c r="C56" s="57">
+        <v>3933.5</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="56">
+        <v>118981</v>
+      </c>
+      <c r="B57" s="57">
+        <v>4844.21</v>
+      </c>
+      <c r="C57" s="57">
+        <v>1770.22</v>
+      </c>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="56">
+        <v>8576</v>
+      </c>
+      <c r="B58" s="57">
+        <v>2444.67</v>
+      </c>
+      <c r="C58" s="57">
+        <v>18914.599999999999</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="56">
+        <v>28449</v>
+      </c>
+      <c r="B59" s="57">
+        <v>2030.17</v>
+      </c>
+      <c r="C59" s="57">
+        <v>1628.05</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="28">
+      <c r="A60" s="56">
+        <v>50484</v>
+      </c>
+      <c r="B60" s="57">
+        <v>1905.84</v>
+      </c>
+      <c r="C60" s="57">
+        <v>3256.55</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="56">
+        <v>119632</v>
+      </c>
+      <c r="B61" s="57">
+        <v>1847.77</v>
+      </c>
+      <c r="C61" s="57">
+        <v>10813.2</v>
+      </c>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+    </row>
+    <row r="62" spans="1:15" ht="28">
+      <c r="A62" s="56">
+        <v>560</v>
+      </c>
+      <c r="B62" s="57">
+        <v>1825.24</v>
+      </c>
+      <c r="C62" s="57">
+        <v>13987.8</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="28">
+      <c r="A63" s="56">
+        <v>33917</v>
+      </c>
+      <c r="B63" s="57">
+        <v>1823.79</v>
+      </c>
+      <c r="C63" s="57">
+        <v>1604.17</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="42">
+      <c r="A64" s="56">
+        <v>259</v>
+      </c>
+      <c r="B64" s="57">
+        <v>1371.14</v>
+      </c>
+      <c r="C64" s="57">
+        <v>2382.29</v>
+      </c>
+      <c r="D64" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="56">
+        <v>637</v>
+      </c>
+      <c r="B65" s="57">
+        <v>1281.98</v>
+      </c>
+      <c r="C65" s="57">
+        <v>3456.66</v>
+      </c>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+    </row>
+    <row r="66" spans="1:7" ht="28">
+      <c r="A66" s="56">
+        <v>562</v>
+      </c>
+      <c r="B66" s="57">
+        <v>1275.19</v>
+      </c>
+      <c r="C66" s="57">
+        <v>2576.27</v>
+      </c>
+      <c r="D66" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28">
+      <c r="A67" s="56">
+        <v>735</v>
+      </c>
+      <c r="B67" s="57">
+        <v>1270.83</v>
+      </c>
+      <c r="C67" s="57">
+        <v>2358.1799999999998</v>
+      </c>
+      <c r="D67" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28">
+      <c r="A68" s="56">
+        <v>29996</v>
+      </c>
+      <c r="B68" s="57">
+        <v>1226.9000000000001</v>
+      </c>
+      <c r="C68" s="57">
+        <v>1420.09</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="28">
+      <c r="A69" s="56">
+        <v>70596</v>
+      </c>
+      <c r="B69" s="57">
+        <v>1218.49</v>
+      </c>
+      <c r="C69" s="57">
+        <v>2813.1</v>
+      </c>
+      <c r="D69" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="28">
+      <c r="A70" s="56">
+        <v>46963</v>
+      </c>
+      <c r="B70" s="57">
+        <v>1107.57</v>
+      </c>
+      <c r="C70" s="57">
+        <v>1710.64</v>
+      </c>
+      <c r="D70" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28">
+      <c r="A71" s="56">
+        <v>32856</v>
+      </c>
+      <c r="B71" s="57">
+        <v>1097.6099999999999</v>
+      </c>
+      <c r="C71" s="57">
+        <v>1580.08</v>
+      </c>
+      <c r="D71" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="42">
+      <c r="A72" s="56">
+        <v>110916</v>
+      </c>
+      <c r="B72" s="57">
+        <v>4402.87</v>
+      </c>
+      <c r="C72" s="57">
+        <v>3895.4</v>
+      </c>
+      <c r="D72" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5769,2005 +7894,395 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+  <dimension ref="B1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="79"/>
-    <col min="2" max="3" width="11" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="79" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="79" customWidth="1"/>
-    <col min="7" max="7" width="12" style="79" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="79"/>
-    <col min="11" max="11" width="24.5" style="79" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="79" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="79" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="79"/>
+    <col min="1" max="2" width="27.83203125" style="86"/>
+    <col min="3" max="3" width="11.33203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="11" style="86" customWidth="1"/>
+    <col min="5" max="7" width="27.83203125" style="86"/>
+    <col min="8" max="8" width="10.83203125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="86" customWidth="1"/>
+    <col min="10" max="16" width="27.83203125" style="86"/>
+    <col min="17" max="19" width="10.83203125" style="86" customWidth="1"/>
+    <col min="20" max="16384" width="27.83203125" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="61" t="s">
+    <row r="1" spans="2:21">
+      <c r="C1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="I1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71"/>
-    </row>
-    <row r="2" spans="2:14" ht="30">
-      <c r="B2" s="55" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="100"/>
+      <c r="Q1" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="89"/>
+    </row>
+    <row r="2" spans="2:21">
+      <c r="C2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="E2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="I2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="J2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="K2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="24">
-      <c r="B3" s="55">
-        <v>22472</v>
-      </c>
-      <c r="C3" s="55">
-        <v>46185.4</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="74">
+      <c r="Q2" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="C3" s="95">
         <v>9060</v>
       </c>
-      <c r="J3" s="75">
+      <c r="D3" s="96">
         <v>16486.8</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="E3" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="F3" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="24">
-      <c r="B4" s="55">
-        <v>85733</v>
-      </c>
-      <c r="C4" s="55">
-        <v>44065.1</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="74">
+      <c r="G3" s="92"/>
+      <c r="H3" s="97">
+        <v>560</v>
+      </c>
+      <c r="I3" s="97">
+        <v>13987.8</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="97">
+        <v>9060</v>
+      </c>
+      <c r="R3" s="98">
+        <v>16486.8</v>
+      </c>
+      <c r="S3" s="98">
+        <v>6878.43</v>
+      </c>
+      <c r="T3" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="C4" s="95">
         <v>28820</v>
       </c>
-      <c r="J4" s="75">
+      <c r="D4" s="96">
         <v>9379.64</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="E4" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="F4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="24">
-      <c r="B5" s="55">
-        <v>21732</v>
-      </c>
-      <c r="C5" s="55">
-        <v>22435.5</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="74">
+      <c r="G4" s="92"/>
+      <c r="H4" s="97">
+        <v>28820</v>
+      </c>
+      <c r="I4" s="97">
+        <v>7514.34</v>
+      </c>
+      <c r="J4" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="97">
+        <v>28820</v>
+      </c>
+      <c r="R4" s="98">
+        <v>9379.64</v>
+      </c>
+      <c r="S4" s="98">
+        <v>7514.34</v>
+      </c>
+      <c r="T4" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="C5" s="95">
         <v>106883</v>
       </c>
-      <c r="J5" s="75">
+      <c r="D5" s="96">
         <v>6861.06</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="E5" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="F5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="24">
-      <c r="B6" s="55">
-        <v>116963</v>
-      </c>
-      <c r="C6" s="55">
-        <v>18891</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="74">
+      <c r="G5" s="92"/>
+      <c r="H5" s="97">
+        <v>106883</v>
+      </c>
+      <c r="I5" s="97">
+        <v>7143.04</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="97">
+        <v>106883</v>
+      </c>
+      <c r="R5" s="98">
+        <v>6861.06</v>
+      </c>
+      <c r="S5" s="98">
+        <v>7143.04</v>
+      </c>
+      <c r="T5" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="C6" s="95">
         <v>24983</v>
       </c>
-      <c r="J6" s="75">
+      <c r="D6" s="96">
         <v>6353.9</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="E6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="F6" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="30">
-      <c r="B7" s="55">
+      <c r="G6" s="92"/>
+      <c r="H6" s="97">
         <v>9060</v>
       </c>
-      <c r="C7" s="55">
-        <v>16486.8</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="I6" s="97">
+        <v>6878.43</v>
+      </c>
+      <c r="J6" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="K6" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="74">
+      <c r="Q6" s="97">
+        <v>24983</v>
+      </c>
+      <c r="R6" s="98">
+        <v>6353.9</v>
+      </c>
+      <c r="S6" s="98">
+        <v>2766.22</v>
+      </c>
+      <c r="T6" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="C7" s="95">
         <v>18760</v>
       </c>
-      <c r="J7" s="75">
+      <c r="D7" s="96">
         <v>5991.16</v>
       </c>
-      <c r="K7" s="75" t="s">
+      <c r="E7" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="75" t="s">
+      <c r="F7" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="45">
-      <c r="B8" s="55">
-        <v>28820</v>
-      </c>
-      <c r="C8" s="55">
-        <v>9379.64</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="74">
-        <v>21118</v>
-      </c>
-      <c r="J8" s="75">
-        <v>5294.48</v>
-      </c>
-      <c r="K8" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="24">
-      <c r="B9" s="55">
-        <v>94021</v>
-      </c>
-      <c r="C9" s="55">
-        <v>8926.2000000000007</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="74">
+      <c r="G7" s="92"/>
+      <c r="H7" s="97">
+        <v>35148</v>
+      </c>
+      <c r="I7" s="97">
+        <v>5186.9399999999996</v>
+      </c>
+      <c r="J7" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="97">
+        <v>18760</v>
+      </c>
+      <c r="R7" s="98">
+        <v>5991.16</v>
+      </c>
+      <c r="S7" s="98">
+        <v>4466.24</v>
+      </c>
+      <c r="T7" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="97">
         <v>16335</v>
       </c>
-      <c r="J9" s="75">
+      <c r="R8" s="98">
         <v>5249.76</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="S8" s="98">
+        <v>3933.5</v>
+      </c>
+      <c r="T8" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="U8" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="36">
-      <c r="B10" s="55">
-        <v>106883</v>
-      </c>
-      <c r="C10" s="55">
-        <v>6861.06</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="76">
-        <v>110916</v>
-      </c>
-      <c r="J10" s="77">
-        <v>4402.87</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="30">
-      <c r="B11" s="55">
-        <v>24983</v>
-      </c>
-      <c r="C11" s="55">
-        <v>6353.9</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="55">
-        <v>40372</v>
-      </c>
-      <c r="C12" s="55">
-        <v>6265.06</v>
-      </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="2:14" ht="30">
-      <c r="B13" s="55">
-        <v>18760</v>
-      </c>
-      <c r="C13" s="55">
-        <v>5991.16</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="54"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="55">
-        <v>24350</v>
-      </c>
-      <c r="C14" s="55">
-        <v>5341.62</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="54"/>
-    </row>
-    <row r="15" spans="2:14" ht="30">
-      <c r="B15" s="55">
-        <v>21118</v>
-      </c>
-      <c r="C15" s="55">
-        <v>5294.48</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="54"/>
-    </row>
-    <row r="16" spans="2:14" ht="30">
-      <c r="B16" s="55">
-        <v>16335</v>
-      </c>
-      <c r="C16" s="55">
-        <v>5249.76</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="54"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="55">
-        <v>32570</v>
-      </c>
-      <c r="C17" s="55">
-        <v>5169.58</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="54"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="55">
-        <v>49115</v>
-      </c>
-      <c r="C18" s="55">
-        <v>5119.8100000000004</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="54"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="55">
-        <v>75300</v>
-      </c>
-      <c r="C19" s="55">
-        <v>4920.53</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="54"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="55">
-        <v>118981</v>
-      </c>
-      <c r="C20" s="55">
-        <v>4844.21</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="54"/>
-    </row>
-    <row r="21" spans="2:14" ht="45">
-      <c r="B21" s="63">
-        <v>110916</v>
-      </c>
-      <c r="C21" s="63">
-        <v>4402.87</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="54"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="64">
-        <v>11081</v>
-      </c>
-      <c r="C22" s="64">
-        <v>4367.08</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-    </row>
-    <row r="25" spans="2:14" ht="24">
-      <c r="B25" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="24">
-      <c r="B26" s="66">
-        <v>22472</v>
-      </c>
-      <c r="C26" s="66">
-        <v>86096.7</v>
-      </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="66">
+    </row>
+    <row r="9" spans="2:21">
+      <c r="Q9" s="97">
+        <v>28449</v>
+      </c>
+      <c r="R9" s="98">
+        <v>2030.17</v>
+      </c>
+      <c r="S9" s="98">
+        <v>1628.05</v>
+      </c>
+      <c r="T9" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="Q10" s="97">
+        <v>50484</v>
+      </c>
+      <c r="R10" s="98">
+        <v>1905.84</v>
+      </c>
+      <c r="S10" s="98">
+        <v>3256.55</v>
+      </c>
+      <c r="T10" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="Q11" s="97">
         <v>560</v>
       </c>
-      <c r="J26" s="66">
+      <c r="R11" s="98">
+        <v>1825.24</v>
+      </c>
+      <c r="S11" s="98">
         <v>13987.8</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="T11" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="66" t="s">
+      <c r="U11" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="24">
-      <c r="B27" s="66">
-        <v>21732</v>
-      </c>
-      <c r="C27" s="66">
-        <v>43491.7</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="66">
-        <v>28820</v>
-      </c>
-      <c r="J27" s="66">
-        <v>7514.34</v>
-      </c>
-      <c r="K27" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="24">
-      <c r="B28" s="66">
-        <v>8576</v>
-      </c>
-      <c r="C28" s="66">
-        <v>18914.599999999999</v>
-      </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="66">
-        <v>106883</v>
-      </c>
-      <c r="J28" s="66">
-        <v>7143.04</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="24">
-      <c r="B29" s="66">
-        <v>560</v>
-      </c>
-      <c r="C29" s="66">
-        <v>13987.8</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="66">
-        <v>9060</v>
-      </c>
-      <c r="J29" s="66">
-        <v>6878.43</v>
-      </c>
-      <c r="K29" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="24">
-      <c r="B30" s="66">
-        <v>119632</v>
-      </c>
-      <c r="C30" s="66">
-        <v>10813.2</v>
-      </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="66">
-        <v>35148</v>
-      </c>
-      <c r="J30" s="66">
-        <v>5186.9399999999996</v>
-      </c>
-      <c r="K30" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="24">
-      <c r="B31" s="66">
-        <v>30464</v>
-      </c>
-      <c r="C31" s="66">
-        <v>9144.6299999999992</v>
-      </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="66">
-        <v>18760</v>
-      </c>
-      <c r="J31" s="66">
-        <v>4466.24</v>
-      </c>
-      <c r="K31" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="66">
-        <v>34178</v>
-      </c>
-      <c r="C32" s="66">
-        <v>8201.81</v>
-      </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" spans="1:15" ht="24">
-      <c r="B33" s="66">
-        <v>28820</v>
-      </c>
-      <c r="C33" s="66">
-        <v>7514.34</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="54"/>
-    </row>
-    <row r="34" spans="1:15" ht="24">
-      <c r="B34" s="66">
-        <v>106883</v>
-      </c>
-      <c r="C34" s="66">
-        <v>7143.04</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="54"/>
-    </row>
-    <row r="35" spans="1:15" ht="24">
-      <c r="B35" s="66">
-        <v>9060</v>
-      </c>
-      <c r="C35" s="66">
-        <v>6878.43</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="54"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="B36" s="66">
-        <v>43997</v>
-      </c>
-      <c r="C36" s="66">
-        <v>6482.81</v>
-      </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="54"/>
-    </row>
-    <row r="37" spans="1:15" ht="24">
-      <c r="B37" s="66">
-        <v>35148</v>
-      </c>
-      <c r="C37" s="66">
-        <v>5186.9399999999996</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="54"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="B38" s="66">
-        <v>23172</v>
-      </c>
-      <c r="C38" s="66">
-        <v>5150.88</v>
-      </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="54"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="B39" s="66">
-        <v>20652</v>
-      </c>
-      <c r="C39" s="66">
-        <v>4607.1899999999996</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="54"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="B40" s="66">
-        <v>37233</v>
-      </c>
-      <c r="C40" s="66">
-        <v>4587.87</v>
-      </c>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="54"/>
-    </row>
-    <row r="41" spans="1:15" ht="24">
-      <c r="B41" s="66">
-        <v>18760</v>
-      </c>
-      <c r="C41" s="66">
-        <v>4466.24</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="54"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="B42" s="66">
-        <v>35585</v>
-      </c>
-      <c r="C42" s="66">
-        <v>4423.63</v>
-      </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="54"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="B43" s="66">
-        <v>84786</v>
-      </c>
-      <c r="C43" s="66">
-        <v>4346.8900000000003</v>
-      </c>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="54"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="B44" s="66">
-        <v>20722</v>
-      </c>
-      <c r="C44" s="66">
-        <v>4124.8599999999997</v>
-      </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="54"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="B45" s="66">
-        <v>73340</v>
-      </c>
-      <c r="C45" s="66">
-        <v>3979.53</v>
-      </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="54"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="I46" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-    </row>
-    <row r="47" spans="1:15" ht="24">
-      <c r="A47" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="M47" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="O47" s="65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="24">
-      <c r="A48" s="57">
-        <v>22472</v>
-      </c>
-      <c r="B48" s="58">
-        <v>46185.4</v>
-      </c>
-      <c r="C48" s="58">
-        <v>86096.7</v>
-      </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="I48" s="66">
-        <v>9060</v>
-      </c>
-      <c r="J48" s="67">
-        <v>16486.8</v>
-      </c>
-      <c r="K48" s="67">
-        <v>6878.43</v>
-      </c>
-      <c r="L48" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="N48" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48" s="68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="24">
-      <c r="A49" s="57">
-        <v>21732</v>
-      </c>
-      <c r="B49" s="58">
-        <v>22435.5</v>
-      </c>
-      <c r="C49" s="58">
-        <v>43491.7</v>
-      </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="I49" s="66">
-        <v>28820</v>
-      </c>
-      <c r="J49" s="67">
-        <v>9379.64</v>
-      </c>
-      <c r="K49" s="67">
-        <v>7514.34</v>
-      </c>
-      <c r="L49" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="N49" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="O49" s="68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="28">
-      <c r="A50" s="57">
-        <v>9060</v>
-      </c>
-      <c r="B50" s="58">
-        <v>16486.8</v>
-      </c>
-      <c r="C50" s="58">
-        <v>6878.43</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="66">
-        <v>106883</v>
-      </c>
-      <c r="J50" s="67">
-        <v>6861.06</v>
-      </c>
-      <c r="K50" s="67">
-        <v>7143.04</v>
-      </c>
-      <c r="L50" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="N50" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="O50" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="28">
-      <c r="A51" s="57">
-        <v>28820</v>
-      </c>
-      <c r="B51" s="58">
-        <v>9379.64</v>
-      </c>
-      <c r="C51" s="58">
-        <v>7514.34</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="66">
-        <v>24983</v>
-      </c>
-      <c r="J51" s="67">
-        <v>6353.9</v>
-      </c>
-      <c r="K51" s="67">
-        <v>2766.22</v>
-      </c>
-      <c r="L51" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="O51" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="28">
-      <c r="A52" s="57">
-        <v>106883</v>
-      </c>
-      <c r="B52" s="58">
-        <v>6861.06</v>
-      </c>
-      <c r="C52" s="58">
-        <v>7143.04</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" s="66">
-        <v>18760</v>
-      </c>
-      <c r="J52" s="67">
-        <v>5991.16</v>
-      </c>
-      <c r="K52" s="67">
-        <v>4466.24</v>
-      </c>
-      <c r="L52" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="N52" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="O52" s="68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="28">
-      <c r="A53" s="57">
-        <v>24983</v>
-      </c>
-      <c r="B53" s="58">
-        <v>6353.9</v>
-      </c>
-      <c r="C53" s="58">
-        <v>2766.22</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="66">
-        <v>16335</v>
-      </c>
-      <c r="J53" s="67">
-        <v>5249.76</v>
-      </c>
-      <c r="K53" s="67">
-        <v>3933.5</v>
-      </c>
-      <c r="L53" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="N53" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="24">
-      <c r="A54" s="57">
-        <v>40372</v>
-      </c>
-      <c r="B54" s="58">
-        <v>6265.06</v>
-      </c>
-      <c r="C54" s="58">
-        <v>3583.66</v>
-      </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="I54" s="66">
-        <v>28449</v>
-      </c>
-      <c r="J54" s="67">
-        <v>2030.17</v>
-      </c>
-      <c r="K54" s="67">
-        <v>1628.05</v>
-      </c>
-      <c r="L54" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="M54" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="N54" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="O54" s="68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="36">
-      <c r="A55" s="57">
-        <v>18760</v>
-      </c>
-      <c r="B55" s="58">
-        <v>5991.16</v>
-      </c>
-      <c r="C55" s="58">
-        <v>4466.24</v>
-      </c>
-      <c r="D55" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="66">
-        <v>50484</v>
-      </c>
-      <c r="J55" s="67">
-        <v>1905.84</v>
-      </c>
-      <c r="K55" s="67">
-        <v>3256.55</v>
-      </c>
-      <c r="L55" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="N55" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="O55" s="68" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="28">
-      <c r="A56" s="57">
-        <v>16335</v>
-      </c>
-      <c r="B56" s="58">
-        <v>5249.76</v>
-      </c>
-      <c r="C56" s="58">
-        <v>3933.5</v>
-      </c>
-      <c r="D56" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="66">
-        <v>560</v>
-      </c>
-      <c r="J56" s="67">
-        <v>1825.24</v>
-      </c>
-      <c r="K56" s="67">
-        <v>13987.8</v>
-      </c>
-      <c r="L56" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="M56" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="N56" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="O56" s="68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="24">
-      <c r="A57" s="57">
-        <v>118981</v>
-      </c>
-      <c r="B57" s="58">
-        <v>4844.21</v>
-      </c>
-      <c r="C57" s="58">
-        <v>1770.22</v>
-      </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="I57" s="66">
+    </row>
+    <row r="12" spans="2:21">
+      <c r="Q12" s="97">
         <v>33917</v>
       </c>
-      <c r="J57" s="67">
+      <c r="R12" s="98">
         <v>1823.79</v>
       </c>
-      <c r="K57" s="67">
+      <c r="S12" s="98">
         <v>1604.17</v>
       </c>
-      <c r="L57" s="68" t="s">
+      <c r="T12" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="68" t="s">
+      <c r="U12" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="N57" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="O57" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="36">
-      <c r="A58" s="57">
-        <v>8576</v>
-      </c>
-      <c r="B58" s="58">
-        <v>2444.67</v>
-      </c>
-      <c r="C58" s="58">
-        <v>18914.599999999999</v>
-      </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="I58" s="66">
-        <v>259</v>
-      </c>
-      <c r="J58" s="67">
-        <v>1371.14</v>
-      </c>
-      <c r="K58" s="67">
-        <v>2382.29</v>
-      </c>
-      <c r="L58" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="N58" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="O58" s="68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="36">
-      <c r="A59" s="57">
-        <v>28449</v>
-      </c>
-      <c r="B59" s="58">
-        <v>2030.17</v>
-      </c>
-      <c r="C59" s="58">
-        <v>1628.05</v>
-      </c>
-      <c r="D59" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="I59" s="66">
-        <v>562</v>
-      </c>
-      <c r="J59" s="67">
-        <v>1275.19</v>
-      </c>
-      <c r="K59" s="67">
-        <v>2576.27</v>
-      </c>
-      <c r="L59" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="N59" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="O59" s="68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="28">
-      <c r="A60" s="57">
-        <v>50484</v>
-      </c>
-      <c r="B60" s="58">
-        <v>1905.84</v>
-      </c>
-      <c r="C60" s="58">
-        <v>3256.55</v>
-      </c>
-      <c r="D60" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="66">
-        <v>735</v>
-      </c>
-      <c r="J60" s="67">
-        <v>1270.83</v>
-      </c>
-      <c r="K60" s="67">
-        <v>2358.1799999999998</v>
-      </c>
-      <c r="L60" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="N60" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="O60" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="24">
-      <c r="A61" s="57">
-        <v>119632</v>
-      </c>
-      <c r="B61" s="58">
-        <v>1847.77</v>
-      </c>
-      <c r="C61" s="58">
-        <v>10813.2</v>
-      </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="I61" s="66">
-        <v>29996</v>
-      </c>
-      <c r="J61" s="67">
-        <v>1226.9000000000001</v>
-      </c>
-      <c r="K61" s="67">
-        <v>1420.09</v>
-      </c>
-      <c r="L61" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="N61" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="O61" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="28">
-      <c r="A62" s="57">
-        <v>560</v>
-      </c>
-      <c r="B62" s="58">
-        <v>1825.24</v>
-      </c>
-      <c r="C62" s="58">
-        <v>13987.8</v>
-      </c>
-      <c r="D62" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" s="66">
-        <v>70596</v>
-      </c>
-      <c r="J62" s="67">
-        <v>1218.49</v>
-      </c>
-      <c r="K62" s="67">
-        <v>2813.1</v>
-      </c>
-      <c r="L62" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M62" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="N62" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="O62" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="28">
-      <c r="A63" s="57">
-        <v>33917</v>
-      </c>
-      <c r="B63" s="58">
-        <v>1823.79</v>
-      </c>
-      <c r="C63" s="58">
-        <v>1604.17</v>
-      </c>
-      <c r="D63" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="66">
-        <v>46963</v>
-      </c>
-      <c r="J63" s="67">
-        <v>1107.57</v>
-      </c>
-      <c r="K63" s="67">
-        <v>1710.64</v>
-      </c>
-      <c r="L63" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="N63" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="O63" s="68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="42">
-      <c r="A64" s="57">
-        <v>259</v>
-      </c>
-      <c r="B64" s="58">
-        <v>1371.14</v>
-      </c>
-      <c r="C64" s="58">
-        <v>2382.29</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F64" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" s="66">
-        <v>32856</v>
-      </c>
-      <c r="J64" s="67">
-        <v>1097.6099999999999</v>
-      </c>
-      <c r="K64" s="67">
-        <v>1580.08</v>
-      </c>
-      <c r="L64" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="N64" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="O64" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="36">
-      <c r="A65" s="57">
-        <v>637</v>
-      </c>
-      <c r="B65" s="58">
-        <v>1281.98</v>
-      </c>
-      <c r="C65" s="58">
-        <v>3456.66</v>
-      </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="I65" s="66">
-        <v>110916</v>
-      </c>
-      <c r="J65" s="67">
-        <v>4402.87</v>
-      </c>
-      <c r="K65" s="67">
-        <v>3895.4</v>
-      </c>
-      <c r="L65" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="M65" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="N65" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="O65" s="68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="28">
-      <c r="A66" s="57">
-        <v>562</v>
-      </c>
-      <c r="B66" s="58">
-        <v>1275.19</v>
-      </c>
-      <c r="C66" s="58">
-        <v>2576.27</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" s="56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="28">
-      <c r="A67" s="57">
-        <v>735</v>
-      </c>
-      <c r="B67" s="58">
-        <v>1270.83</v>
-      </c>
-      <c r="C67" s="58">
-        <v>2358.1799999999998</v>
-      </c>
-      <c r="D67" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="28">
-      <c r="A68" s="57">
-        <v>29996</v>
-      </c>
-      <c r="B68" s="58">
-        <v>1226.9000000000001</v>
-      </c>
-      <c r="C68" s="58">
-        <v>1420.09</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" s="56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="28">
-      <c r="A69" s="57">
-        <v>70596</v>
-      </c>
-      <c r="B69" s="58">
-        <v>1218.49</v>
-      </c>
-      <c r="C69" s="58">
-        <v>2813.1</v>
-      </c>
-      <c r="D69" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="28">
-      <c r="A70" s="57">
-        <v>46963</v>
-      </c>
-      <c r="B70" s="58">
-        <v>1107.57</v>
-      </c>
-      <c r="C70" s="58">
-        <v>1710.64</v>
-      </c>
-      <c r="D70" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="28">
-      <c r="A71" s="57">
-        <v>32856</v>
-      </c>
-      <c r="B71" s="58">
-        <v>1097.6099999999999</v>
-      </c>
-      <c r="C71" s="58">
-        <v>1580.08</v>
-      </c>
-      <c r="D71" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" s="56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="42">
-      <c r="A72" s="57">
-        <v>110916</v>
-      </c>
-      <c r="B72" s="58">
-        <v>4402.87</v>
-      </c>
-      <c r="C72" s="58">
-        <v>3895.4</v>
-      </c>
-      <c r="D72" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="56" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I24:N24"/>
+  <mergeCells count="3">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="Q1:U1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
